--- a/data/master_data.xlsx
+++ b/data/master_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mckinsey-my.sharepoint.com/personal/vinod_krishnan_external_mckinsey_com/Documents/Documents/Personal/RPL 4/RPL 6/RPL 6 Predictor/GPT Pro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mckinsey-my.sharepoint.com/personal/vinod_krishnan_external_mckinsey_com/Documents/Documents/Personal/RPL 4/RPL 6/RPL 6 Predictor/GPT Pro/Output/Streamlit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="8_{EAA45CB6-7556-4256-93AC-90D9CACEFDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BDD42764-8BEF-4A31-9898-A3EF36D33C4C}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{EAA45CB6-7556-4256-93AC-90D9CACEFDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EA5FDEA-0FE2-4DAB-B3CD-DE173DA6790A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{CAA5E37E-7128-4E77-90A6-40506481172B}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2962" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4129" uniqueCount="211">
   <si>
     <t>No</t>
   </si>
@@ -619,6 +619,105 @@
       </rPr>
       <t xml:space="preserve"> [Scrapped]</t>
     </r>
+  </si>
+  <si>
+    <t>Drop 26</t>
+  </si>
+  <si>
+    <t>Drop 27</t>
+  </si>
+  <si>
+    <t>Drop 28</t>
+  </si>
+  <si>
+    <t>Drop 29</t>
+  </si>
+  <si>
+    <t>Drop 30</t>
+  </si>
+  <si>
+    <t>Drop 31</t>
+  </si>
+  <si>
+    <t>Drop 32</t>
+  </si>
+  <si>
+    <t>Drop 33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will any of the 4 captains win minimum 3 tosses in RPL 6? </t>
+  </si>
+  <si>
+    <t>What will be the best batting average in RPL 6?</t>
+  </si>
+  <si>
+    <t>How many run outs will happen in the finals of RPL 6?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How many times will a by-runner get run out in RPL 6 [thus the player he is running for will be run out] </t>
+  </si>
+  <si>
+    <t>What will be the least number of runs given by a bowler in 3 overs in a single innings (extras not included; all 18 balls to be completed)</t>
+  </si>
+  <si>
+    <t>How many caught and bowled dismissals will be seen in RPL 6?</t>
+  </si>
+  <si>
+    <t>How many times will a team cross 180 runs in an innings in RPL 6</t>
+  </si>
+  <si>
+    <t>What will be the maximum number of runs given by a bowler in a single innings (Extras not included. He may or may not complete his quota of 3 overs)</t>
+  </si>
+  <si>
+    <t>8 to 10</t>
+  </si>
+  <si>
+    <t>0 to 2</t>
+  </si>
+  <si>
+    <t>More than 35</t>
+  </si>
+  <si>
+    <t>upto 50</t>
+  </si>
+  <si>
+    <t>More than 3</t>
+  </si>
+  <si>
+    <t>0 to 4</t>
+  </si>
+  <si>
+    <t>3 to 4</t>
+  </si>
+  <si>
+    <t>31 to 35</t>
+  </si>
+  <si>
+    <t>5 to 7</t>
+  </si>
+  <si>
+    <t>5 to 6</t>
+  </si>
+  <si>
+    <t>0 to 25</t>
+  </si>
+  <si>
+    <t>26 to 30</t>
+  </si>
+  <si>
+    <t>11 to 13</t>
+  </si>
+  <si>
+    <t>More than 13</t>
+  </si>
+  <si>
+    <t>7 to 8</t>
+  </si>
+  <si>
+    <t>&gt;8</t>
+  </si>
+  <si>
+    <t>71 to 80</t>
   </si>
 </sst>
 </file>
@@ -857,16 +956,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -876,6 +969,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1284,14 +1383,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{263C4B91-0E7F-423D-B633-6B993FCABF1D}">
-  <dimension ref="B1:BQ63"/>
+  <dimension ref="B1:CO63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="BJ3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="CF3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="M17" sqref="M17"/>
       <selection pane="topRight" activeCell="M17" sqref="M17"/>
       <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
-      <selection pane="bottomRight" activeCell="BL58" sqref="BL58"/>
+      <selection pane="bottomRight" activeCell="CL5" sqref="CL5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1352,126 +1451,182 @@
     <col min="65" max="66" width="13.88671875" style="2" customWidth="1"/>
     <col min="67" max="67" width="21.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="68" max="69" width="13.88671875" style="2" customWidth="1"/>
-    <col min="70" max="16384" width="8.88671875" style="2"/>
+    <col min="70" max="70" width="20.44140625" style="2" customWidth="1"/>
+    <col min="71" max="72" width="13.88671875" style="2" customWidth="1"/>
+    <col min="73" max="73" width="20.44140625" style="2" customWidth="1"/>
+    <col min="74" max="75" width="13.88671875" style="2" customWidth="1"/>
+    <col min="76" max="76" width="20.44140625" style="2" customWidth="1"/>
+    <col min="77" max="78" width="13.88671875" style="2" customWidth="1"/>
+    <col min="79" max="79" width="20.44140625" style="2" customWidth="1"/>
+    <col min="80" max="81" width="13.88671875" style="2" customWidth="1"/>
+    <col min="82" max="82" width="20.44140625" style="2" customWidth="1"/>
+    <col min="83" max="84" width="13.88671875" style="2" customWidth="1"/>
+    <col min="85" max="85" width="20.44140625" style="2" customWidth="1"/>
+    <col min="86" max="87" width="13.88671875" style="2" customWidth="1"/>
+    <col min="88" max="88" width="20.44140625" style="2" customWidth="1"/>
+    <col min="89" max="90" width="13.88671875" style="2" customWidth="1"/>
+    <col min="91" max="91" width="20.44140625" style="2" customWidth="1"/>
+    <col min="92" max="93" width="13.88671875" style="2" customWidth="1"/>
+    <col min="94" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:69" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:93" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="23"/>
+      <c r="H1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="24"/>
+      <c r="I1" s="28"/>
       <c r="J1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="22"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="22"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="22"/>
+      <c r="O1" s="23"/>
       <c r="P1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="22"/>
+      <c r="Q1" s="23"/>
       <c r="R1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="22"/>
+      <c r="S1" s="23"/>
       <c r="T1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="22"/>
+      <c r="U1" s="23"/>
       <c r="V1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="W1" s="22"/>
+      <c r="W1" s="23"/>
       <c r="X1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="22"/>
+      <c r="Y1" s="23"/>
       <c r="Z1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="26" t="s">
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="24" t="s">
         <v>177</v>
       </c>
-      <c r="AC1" s="27"/>
-      <c r="AD1" s="28"/>
+      <c r="AC1" s="25"/>
+      <c r="AD1" s="26"/>
       <c r="AE1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AF1" s="25"/>
-      <c r="AG1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="23"/>
       <c r="AH1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AI1" s="25"/>
-      <c r="AJ1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="23"/>
       <c r="AK1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AL1" s="25"/>
-      <c r="AM1" s="22"/>
+      <c r="AL1" s="22"/>
+      <c r="AM1" s="23"/>
       <c r="AN1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AO1" s="25"/>
-      <c r="AP1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="23"/>
       <c r="AQ1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AR1" s="25"/>
-      <c r="AS1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="23"/>
       <c r="AT1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="25"/>
-      <c r="AV1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="23"/>
       <c r="AW1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="AX1" s="25"/>
-      <c r="AY1" s="22"/>
+      <c r="AX1" s="22"/>
+      <c r="AY1" s="23"/>
       <c r="AZ1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="BA1" s="25"/>
-      <c r="BB1" s="22"/>
+      <c r="BA1" s="22"/>
+      <c r="BB1" s="23"/>
       <c r="BC1" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="BD1" s="25"/>
-      <c r="BE1" s="22"/>
+      <c r="BD1" s="22"/>
+      <c r="BE1" s="23"/>
       <c r="BF1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="BG1" s="25"/>
-      <c r="BH1" s="22"/>
+      <c r="BG1" s="22"/>
+      <c r="BH1" s="23"/>
       <c r="BI1" s="21" t="s">
         <v>171</v>
       </c>
-      <c r="BJ1" s="25"/>
-      <c r="BK1" s="22"/>
+      <c r="BJ1" s="22"/>
+      <c r="BK1" s="23"/>
       <c r="BL1" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="BM1" s="25"/>
-      <c r="BN1" s="22"/>
+      <c r="BM1" s="22"/>
+      <c r="BN1" s="23"/>
       <c r="BO1" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="BP1" s="25"/>
-      <c r="BQ1" s="22"/>
+      <c r="BP1" s="22"/>
+      <c r="BQ1" s="23"/>
+      <c r="BR1" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="BS1" s="22"/>
+      <c r="BT1" s="23"/>
+      <c r="BU1" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="BV1" s="22"/>
+      <c r="BW1" s="23"/>
+      <c r="BX1" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="BY1" s="22"/>
+      <c r="BZ1" s="23"/>
+      <c r="CA1" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="CB1" s="22"/>
+      <c r="CC1" s="23"/>
+      <c r="CD1" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="CE1" s="22"/>
+      <c r="CF1" s="23"/>
+      <c r="CG1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="CH1" s="22"/>
+      <c r="CI1" s="23"/>
+      <c r="CJ1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="CK1" s="22"/>
+      <c r="CL1" s="23"/>
+      <c r="CM1" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="CN1" s="22"/>
+      <c r="CO1" s="23"/>
     </row>
-    <row r="2" spans="2:69" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:93" s="11" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
@@ -1674,8 +1829,80 @@
       <c r="BQ2" s="4" t="s">
         <v>27</v>
       </c>
+      <c r="BR2" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="BS2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BT2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BU2" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="BV2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BW2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="BX2" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="BY2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="BZ2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="CA2" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="CB2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="CC2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="CD2" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="CE2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="CF2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="CG2" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="CH2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="CI2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="CJ2" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="CK2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="CL2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="CM2" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="CN2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="CO2" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B3" s="12">
         <v>1</v>
       </c>
@@ -1868,8 +2095,80 @@
       <c r="BQ3" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX3" s="15">
+        <v>3</v>
+      </c>
+      <c r="BY3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA3" s="15">
+        <v>3</v>
+      </c>
+      <c r="CB3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD3" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF3" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI3" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ3" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL3" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM3" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO3" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="4" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B4" s="12">
         <v>2</v>
       </c>
@@ -2072,8 +2371,80 @@
       <c r="BQ4" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT4" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU4" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX4" s="15">
+        <v>2</v>
+      </c>
+      <c r="BY4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA4" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD4" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF4" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG4" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ4" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL4" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM4" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="CN4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO4" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="5" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B5" s="12">
         <v>3</v>
       </c>
@@ -2276,8 +2647,80 @@
       <c r="BQ5" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU5" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ5" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA5" s="15">
+        <v>1</v>
+      </c>
+      <c r="CB5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD5" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG5" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="CH5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI5" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ5" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM5" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="CN5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO5" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B6" s="12">
         <v>4</v>
       </c>
@@ -2464,8 +2907,80 @@
       <c r="BQ6" s="15" t="s">
         <v>109</v>
       </c>
+      <c r="BR6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO6" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="7" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B7" s="12">
         <v>5</v>
       </c>
@@ -2668,8 +3183,80 @@
       <c r="BQ7" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU7" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX7" s="15">
+        <v>2</v>
+      </c>
+      <c r="BY7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA7" s="15">
+        <v>2</v>
+      </c>
+      <c r="CB7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD7" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG7" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="CH7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ7" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM7" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN7" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CO7" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="8" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B8" s="12">
         <v>6</v>
       </c>
@@ -2870,8 +3457,80 @@
       <c r="BQ8" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU8" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX8" s="15">
+        <v>2</v>
+      </c>
+      <c r="BY8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA8" s="15">
+        <v>3</v>
+      </c>
+      <c r="CB8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD8" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG8" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CH8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL8" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM8" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="CN8" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CO8" s="15" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="9" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B9" s="12">
         <v>7</v>
       </c>
@@ -3072,8 +3731,80 @@
       <c r="BQ9" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL9" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM9" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO9" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="10" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B10" s="12">
         <v>8</v>
       </c>
@@ -3276,8 +4007,80 @@
       <c r="BQ10" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU10" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX10" s="15">
+        <v>1</v>
+      </c>
+      <c r="BY10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA10" s="15">
+        <v>1</v>
+      </c>
+      <c r="CB10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD10" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="CE10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF10" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG10" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ10" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM10" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="CN10" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO10" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="11" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B11" s="12">
         <v>9</v>
       </c>
@@ -3480,8 +4283,80 @@
       <c r="BQ11" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU11" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX11" s="15">
+        <v>0</v>
+      </c>
+      <c r="BY11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="CA11" s="15">
+        <v>0</v>
+      </c>
+      <c r="CB11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="CD11" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG11" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CH11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ11" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK11" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CL11" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM11" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="CN11" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="12" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B12" s="12">
         <v>10</v>
       </c>
@@ -3676,8 +4551,80 @@
       <c r="BQ12" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS12" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU12" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="BV12" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BX12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN12" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO12" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="13" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B13" s="12">
         <v>11</v>
       </c>
@@ -3880,8 +4827,80 @@
       <c r="BQ13" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU13" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX13" s="15">
+        <v>1</v>
+      </c>
+      <c r="BY13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA13" s="15">
+        <v>2</v>
+      </c>
+      <c r="CB13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD13" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG13" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ13" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK13" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL13" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM13" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN13" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CO13" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="14" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B14" s="12">
         <v>12</v>
       </c>
@@ -4084,8 +5103,80 @@
       <c r="BQ14" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR14" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU14" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX14" s="15">
+        <v>1</v>
+      </c>
+      <c r="BY14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA14" s="15">
+        <v>3</v>
+      </c>
+      <c r="CB14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC14" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD14" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="CE14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="CG14" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ14" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM14" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO14" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="15" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B15" s="12">
         <v>13</v>
       </c>
@@ -4286,8 +5377,80 @@
       <c r="BQ15" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU15" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX15" s="15">
+        <v>3</v>
+      </c>
+      <c r="BY15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA15" s="15">
+        <v>1</v>
+      </c>
+      <c r="CB15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD15" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG15" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="CH15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI15" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ15" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK15" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CL15" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM15" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN15" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO15" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="16" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B16" s="12">
         <v>14</v>
       </c>
@@ -4478,8 +5641,80 @@
       <c r="BQ16" s="15" t="s">
         <v>109</v>
       </c>
+      <c r="BR16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ16" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CK16" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL16" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="CM16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN16" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO16" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="17" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B17" s="12">
         <v>15</v>
       </c>
@@ -4682,8 +5917,80 @@
       <c r="BQ17" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT17" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU17" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX17" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="BY17" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA17" s="15">
+        <v>2</v>
+      </c>
+      <c r="CB17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD17" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG17" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ17" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL17" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM17" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN17" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO17" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="18" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B18" s="12">
         <v>16</v>
       </c>
@@ -4880,8 +6187,80 @@
       <c r="BQ18" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX18" s="15">
+        <v>2</v>
+      </c>
+      <c r="BY18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA18" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD18" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG18" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="CH18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL18" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM18" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="CN18" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO18" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="19" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B19" s="12">
         <v>17</v>
       </c>
@@ -5084,8 +6463,80 @@
       <c r="BQ19" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU19" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX19" s="15">
+        <v>2</v>
+      </c>
+      <c r="BY19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA19" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD19" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG19" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI19" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ19" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CK19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL19" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="CM19" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN19" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO19" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="20" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B20" s="12">
         <v>18</v>
       </c>
@@ -5288,8 +6739,80 @@
       <c r="BQ20" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU20" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX20" s="15">
+        <v>1</v>
+      </c>
+      <c r="BY20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA20" s="15">
+        <v>2</v>
+      </c>
+      <c r="CB20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CC20" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD20" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE20" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF20" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG20" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ20" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK20" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CL20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM20" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN20" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO20" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="21" spans="2:69" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:93" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B21" s="12">
         <v>19</v>
       </c>
@@ -5492,8 +7015,80 @@
       <c r="BQ21" s="15" t="s">
         <v>109</v>
       </c>
+      <c r="BR21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX21" s="15">
+        <v>2</v>
+      </c>
+      <c r="BY21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA21" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB21" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN21" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO21" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="22" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B22" s="12">
         <v>20</v>
       </c>
@@ -5688,8 +7283,80 @@
       <c r="BQ22" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT22" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU22" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX22" s="15">
+        <v>2</v>
+      </c>
+      <c r="BY22" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA22" s="15">
+        <v>3</v>
+      </c>
+      <c r="CB22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC22" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD22" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG22" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ22" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM22" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN22" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO22" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="23" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B23" s="12">
         <v>21</v>
       </c>
@@ -5892,8 +7559,80 @@
       <c r="BQ23" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU23" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX23" s="15">
+        <v>2</v>
+      </c>
+      <c r="BY23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA23" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD23" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG23" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ23" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM23" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="CN23" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO23" s="15" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="24" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B24" s="12">
         <v>22</v>
       </c>
@@ -6096,8 +7835,80 @@
       <c r="BQ24" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU24" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX24" s="15">
+        <v>3</v>
+      </c>
+      <c r="BY24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA24" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD24" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG24" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="CH24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI24" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ24" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM24" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN24" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO24" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="25" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B25" s="12">
         <v>23</v>
       </c>
@@ -6300,8 +8111,80 @@
       <c r="BQ25" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT25" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU25" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX25" s="15">
+        <v>2</v>
+      </c>
+      <c r="BY25" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BZ25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA25" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD25" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF25" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG25" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ25" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL25" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM25" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="CN25" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO25" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="26" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B26" s="12">
         <v>24</v>
       </c>
@@ -6502,8 +8385,80 @@
       <c r="BQ26" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU26" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX26" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="BY26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA26" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CC26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD26" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG26" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH26" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI26" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ26" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM26" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN26" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO26" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="27" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B27" s="12">
         <v>25</v>
       </c>
@@ -6706,8 +8661,80 @@
       <c r="BQ27" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU27" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV27" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW27" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX27" s="15">
+        <v>3</v>
+      </c>
+      <c r="BY27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA27" s="15">
+        <v>2</v>
+      </c>
+      <c r="CB27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD27" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="CE27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG27" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ27" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM27" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN27" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO27" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="28" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B28" s="12">
         <v>26</v>
       </c>
@@ -6910,8 +8937,80 @@
       <c r="BQ28" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT28" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU28" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW28" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX28" s="15">
+        <v>1</v>
+      </c>
+      <c r="BY28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ28" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA28" s="15">
+        <v>2</v>
+      </c>
+      <c r="CB28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC28" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD28" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF28" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG28" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI28" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ28" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL28" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM28" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN28" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO28" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="29" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B29" s="12">
         <v>27</v>
       </c>
@@ -7100,8 +9199,80 @@
       <c r="BQ29" s="15" t="s">
         <v>109</v>
       </c>
+      <c r="BR29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN29" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO29" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="30" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B30" s="12">
         <v>28</v>
       </c>
@@ -7304,8 +9475,80 @@
       <c r="BQ30" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS30" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU30" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX30" s="15">
+        <v>1</v>
+      </c>
+      <c r="BY30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA30" s="15">
+        <v>1</v>
+      </c>
+      <c r="CB30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC30" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD30" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG30" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ30" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL30" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM30" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="CN30" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO30" s="15" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="31" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B31" s="12">
         <v>29</v>
       </c>
@@ -7506,8 +9749,80 @@
       <c r="BQ31" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU31" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX31" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="BY31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ31" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA31" s="15">
+        <v>3</v>
+      </c>
+      <c r="CB31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC31" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD31" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF31" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG31" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ31" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL31" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM31" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="CN31" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO31" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="32" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B32" s="12">
         <v>30</v>
       </c>
@@ -7710,8 +10025,80 @@
       <c r="BQ32" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR32" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT32" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU32" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="BV32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW32" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BX32" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="BY32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ32" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA32" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB32" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC32" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD32" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG32" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH32" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CI32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ32" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK32" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CL32" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM32" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN32" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO32" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="33" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B33" s="12">
         <v>31</v>
       </c>
@@ -7914,8 +10301,80 @@
       <c r="BQ33" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT33" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU33" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW33" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX33" s="15">
+        <v>1</v>
+      </c>
+      <c r="BY33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ33" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA33" s="15">
+        <v>1</v>
+      </c>
+      <c r="CB33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC33" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD33" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF33" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG33" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI33" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ33" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK33" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CL33" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM33" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN33" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO33" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="34" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B34" s="12">
         <v>32</v>
       </c>
@@ -8112,8 +10571,80 @@
       <c r="BQ34" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS34" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU34" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX34" s="15">
+        <v>0</v>
+      </c>
+      <c r="BY34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ34" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="CA34" s="15">
+        <v>3</v>
+      </c>
+      <c r="CB34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC34" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD34" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG34" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ34" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL34" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM34" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN34" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO34" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="35" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B35" s="12">
         <v>33</v>
       </c>
@@ -8314,8 +10845,80 @@
       <c r="BQ35" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT35" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU35" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW35" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX35" s="15">
+        <v>1</v>
+      </c>
+      <c r="BY35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ35" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA35" s="15">
+        <v>2</v>
+      </c>
+      <c r="CB35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC35" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD35" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE35" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF35" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG35" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="CH35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI35" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ35" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL35" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM35" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN35" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO35" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="36" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B36" s="12">
         <v>34</v>
       </c>
@@ -8512,8 +11115,80 @@
       <c r="BQ36" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR36" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT36" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU36" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV36" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW36" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX36" s="15">
+        <v>2</v>
+      </c>
+      <c r="BY36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ36" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA36" s="15">
+        <v>2</v>
+      </c>
+      <c r="CB36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC36" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD36" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF36" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG36" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CH36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI36" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ36" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL36" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM36" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN36" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO36" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="37" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B37" s="12">
         <v>35</v>
       </c>
@@ -8704,8 +11379,80 @@
       <c r="BQ37" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO37" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="38" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B38" s="12">
         <v>36</v>
       </c>
@@ -8908,8 +11655,80 @@
       <c r="BQ38" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT38" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU38" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW38" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX38" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY38" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ38" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA38" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC38" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD38" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="CE38" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF38" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG38" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CH38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI38" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ38" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK38" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL38" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM38" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN38" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO38" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="39" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B39" s="12">
         <v>37</v>
       </c>
@@ -9112,8 +11931,80 @@
       <c r="BQ39" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT39" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU39" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW39" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX39" s="15">
+        <v>3</v>
+      </c>
+      <c r="BY39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA39" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC39" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD39" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG39" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI39" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ39" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL39" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM39" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN39" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO39" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="40" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B40" s="12">
         <v>38</v>
       </c>
@@ -9308,8 +12199,80 @@
       <c r="BQ40" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR40" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS40" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT40" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU40" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV40" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW40" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX40" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY40" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ40" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA40" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB40" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC40" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD40" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="CE40" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CF40" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="CG40" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH40" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CI40" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ40" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK40" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL40" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM40" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN40" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO40" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="41" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B41" s="12">
         <v>39</v>
       </c>
@@ -9512,8 +12475,80 @@
       <c r="BQ41" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR41" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT41" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU41" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW41" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX41" s="15">
+        <v>2</v>
+      </c>
+      <c r="BY41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ41" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA41" s="15">
+        <v>2</v>
+      </c>
+      <c r="CB41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC41" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD41" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF41" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG41" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI41" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ41" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL41" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM41" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN41" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO41" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="42" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B42" s="12">
         <v>40</v>
       </c>
@@ -9712,8 +12747,80 @@
       <c r="BQ42" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR42" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT42" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU42" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="BV42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW42" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="BX42" s="15">
+        <v>2</v>
+      </c>
+      <c r="BY42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ42" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA42" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC42" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD42" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF42" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG42" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="CH42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI42" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="CJ42" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK42" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL42" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM42" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN42" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO42" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="43" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B43" s="12">
         <v>41</v>
       </c>
@@ -9906,8 +13013,80 @@
       <c r="BQ43" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR43" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS43" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT43" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU43" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV43" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW43" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX43" s="15">
+        <v>3</v>
+      </c>
+      <c r="BY43" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ43" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA43" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB43" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC43" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD43" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE43" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF43" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG43" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH43" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI43" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ43" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK43" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL43" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM43" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN43" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO43" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="44" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B44" s="12">
         <v>42</v>
       </c>
@@ -10110,8 +13289,80 @@
       <c r="BQ44" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR44" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS44" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT44" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU44" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV44" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW44" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX44" s="15">
+        <v>3</v>
+      </c>
+      <c r="BY44" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ44" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA44" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB44" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC44" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD44" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="CE44" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF44" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG44" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH44" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CI44" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ44" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK44" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CL44" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM44" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN44" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO44" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="45" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B45" s="12">
         <v>43</v>
       </c>
@@ -10312,8 +13563,80 @@
       <c r="BQ45" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR45" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS45" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BT45" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU45" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV45" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW45" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX45" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY45" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ45" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA45" s="15">
+        <v>3</v>
+      </c>
+      <c r="CB45" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC45" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD45" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE45" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF45" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG45" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH45" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI45" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ45" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK45" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL45" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM45" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN45" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO45" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="46" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B46" s="12">
         <v>44</v>
       </c>
@@ -10516,8 +13839,80 @@
       <c r="BQ46" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR46" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BS46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT46" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BU46" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW46" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX46" s="15">
+        <v>1</v>
+      </c>
+      <c r="BY46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ46" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA46" s="15">
+        <v>1</v>
+      </c>
+      <c r="CB46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC46" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD46" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF46" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG46" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI46" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ46" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL46" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM46" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN46" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO46" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="47" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B47" s="12">
         <v>45</v>
       </c>
@@ -10720,8 +14115,80 @@
       <c r="BQ47" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT47" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU47" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV47" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW47" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX47" s="15">
+        <v>2</v>
+      </c>
+      <c r="BY47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ47" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA47" s="15">
+        <v>1</v>
+      </c>
+      <c r="CB47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC47" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD47" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF47" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG47" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CH47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI47" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ47" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL47" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM47" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN47" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO47" s="15" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="48" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B48" s="12">
         <v>46</v>
       </c>
@@ -10924,8 +14391,80 @@
       <c r="BQ48" s="15" t="s">
         <v>36</v>
       </c>
+      <c r="BR48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT48" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU48" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="BV48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW48" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BX48" s="15">
+        <v>2</v>
+      </c>
+      <c r="BY48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ48" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA48" s="15">
+        <v>1</v>
+      </c>
+      <c r="CB48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC48" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD48" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="CE48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF48" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CG48" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CH48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI48" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ48" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL48" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM48" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="CN48" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO48" s="15" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="49" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B49" s="12">
         <v>47</v>
       </c>
@@ -11106,8 +14645,80 @@
       <c r="BQ49" s="15" t="s">
         <v>109</v>
       </c>
+      <c r="BR49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BS49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BT49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BU49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG49" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="CH49" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI49" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN49" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO49" s="15" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="50" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B50" s="12">
         <v>48</v>
       </c>
@@ -11288,8 +14899,80 @@
       <c r="BQ50" s="15" t="s">
         <v>38</v>
       </c>
+      <c r="BR50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BS50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BT50" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="BU50" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="BV50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BW50" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="BX50" s="15">
+        <v>2</v>
+      </c>
+      <c r="BY50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ50" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CA50" s="15">
+        <v>3</v>
+      </c>
+      <c r="CB50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC50" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CD50" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="CE50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CF50" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CG50" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CH50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI50" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="CJ50" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK50" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="CL50" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM50" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="CN50" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="CO50" s="15" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="51" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:93" x14ac:dyDescent="0.3">
       <c r="B51" s="19"/>
       <c r="C51" s="19" t="s">
         <v>92</v>
@@ -11490,37 +15173,249 @@
       <c r="BQ51" s="15" t="s">
         <v>109</v>
       </c>
+      <c r="BR51" s="19"/>
+      <c r="BS51" s="19"/>
+      <c r="BT51" s="19"/>
+      <c r="BU51" s="19" t="s">
+        <v>134</v>
+      </c>
+      <c r="BV51" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="BW51" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="BX51" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="BY51" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="BZ51" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="CA51" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="CB51" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CC51" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="CD51" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE51" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF51" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG51" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="CH51" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CI51" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="CJ51" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="CK51" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="CL51" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="CM51" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="CN51" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="CO51" s="19" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="59" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:93" x14ac:dyDescent="0.3">
+      <c r="BU52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BV52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BW52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BX52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BY52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="BZ52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CA52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CB52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CC52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CD52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CE52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CF52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CG52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CH52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CI52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CJ52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CK52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CL52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CM52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CN52" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="CO52" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="2:93" x14ac:dyDescent="0.3">
+      <c r="BR53" s="2">
+        <v>41</v>
+      </c>
+      <c r="BS53" s="2">
+        <v>41</v>
+      </c>
+      <c r="BT53" s="2">
+        <v>41</v>
+      </c>
+      <c r="BU53" s="2">
+        <v>39</v>
+      </c>
+      <c r="BV53" s="2">
+        <v>39</v>
+      </c>
+      <c r="BW53" s="2">
+        <v>39</v>
+      </c>
+      <c r="BX53" s="2">
+        <v>38</v>
+      </c>
+      <c r="BY53" s="2">
+        <v>38</v>
+      </c>
+      <c r="BZ53" s="2">
+        <v>38</v>
+      </c>
+      <c r="CA53" s="2">
+        <v>39</v>
+      </c>
+      <c r="CB53" s="2">
+        <v>39</v>
+      </c>
+      <c r="CC53" s="2">
+        <v>39</v>
+      </c>
+      <c r="CD53" s="2">
+        <v>38</v>
+      </c>
+      <c r="CE53" s="2">
+        <v>38</v>
+      </c>
+      <c r="CF53" s="2">
+        <v>38</v>
+      </c>
+      <c r="CG53" s="2">
+        <v>38</v>
+      </c>
+      <c r="CH53" s="2">
+        <v>38</v>
+      </c>
+      <c r="CI53" s="2">
+        <v>38</v>
+      </c>
+      <c r="CJ53" s="2">
+        <v>39</v>
+      </c>
+      <c r="CK53" s="2">
+        <v>39</v>
+      </c>
+      <c r="CL53" s="2">
+        <v>39</v>
+      </c>
+      <c r="CM53" s="2">
+        <v>37</v>
+      </c>
+      <c r="CN53" s="2">
+        <v>37</v>
+      </c>
+      <c r="CO53" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="59" spans="2:93" x14ac:dyDescent="0.3">
       <c r="K59" s="20"/>
       <c r="M59" s="20"/>
       <c r="O59" s="20"/>
     </row>
-    <row r="60" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:93" x14ac:dyDescent="0.3">
       <c r="K60" s="20"/>
       <c r="M60" s="20"/>
       <c r="O60" s="20"/>
     </row>
-    <row r="61" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:93" x14ac:dyDescent="0.3">
       <c r="K61" s="20"/>
       <c r="O61" s="20"/>
     </row>
-    <row r="62" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:93" x14ac:dyDescent="0.3">
       <c r="K62" s="20"/>
       <c r="O62" s="20"/>
     </row>
-    <row r="63" spans="2:69" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:93" x14ac:dyDescent="0.3">
       <c r="K63" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="BO1:BQ1"/>
-    <mergeCell ref="AW1:AY1"/>
-    <mergeCell ref="AZ1:BB1"/>
-    <mergeCell ref="BC1:BE1"/>
-    <mergeCell ref="BF1:BH1"/>
-    <mergeCell ref="BI1:BK1"/>
-    <mergeCell ref="BL1:BN1"/>
+  <mergeCells count="33">
+    <mergeCell ref="CG1:CI1"/>
+    <mergeCell ref="CJ1:CL1"/>
+    <mergeCell ref="CM1:CO1"/>
+    <mergeCell ref="BR1:BT1"/>
+    <mergeCell ref="BU1:BW1"/>
+    <mergeCell ref="BX1:BZ1"/>
+    <mergeCell ref="CA1:CC1"/>
+    <mergeCell ref="CD1:CF1"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="AT1:AV1"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="T1:U1"/>
@@ -11533,12 +15428,13 @@
     <mergeCell ref="AK1:AM1"/>
     <mergeCell ref="AN1:AP1"/>
     <mergeCell ref="AQ1:AS1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="BO1:BQ1"/>
+    <mergeCell ref="AW1:AY1"/>
+    <mergeCell ref="AZ1:BB1"/>
+    <mergeCell ref="BC1:BE1"/>
+    <mergeCell ref="BF1:BH1"/>
+    <mergeCell ref="BI1:BK1"/>
+    <mergeCell ref="BL1:BN1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C13 C15:C17 C32:C35 C19:C21 C23:C30 C37:C38 C40:C51">
     <cfRule type="duplicateValues" dxfId="6" priority="7"/>
